--- a/ir_library.xlsx
+++ b/ir_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\marc\local\src\AirConditionerRemote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BF019-8BAD-4DA0-8189-7F6FF2C374B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC17EE5-F20E-4F5F-8C6B-49060E9B29B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$40</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="101">
   <si>
     <t>mode</t>
   </si>
@@ -317,6 +329,15 @@
   </si>
   <si>
     <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>5 constant bits</t>
+  </si>
+  <si>
+    <t>1 constant bit</t>
+  </si>
+  <si>
+    <t>1 bit goes to the right</t>
   </si>
 </sst>
 </file>
@@ -679,11 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -839,7 +859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -916,7 +936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2764,7 +2784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2841,7 +2861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2918,7 +2938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2995,7 +3015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3072,7 +3092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3386,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3466,7 +3486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3546,7 +3566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3623,7 +3643,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3725,6 +3745,9 @@
       <c r="O40" t="s">
         <v>97</v>
       </c>
+      <c r="S40" t="s">
+        <v>95</v>
+      </c>
       <c r="T40" t="s">
         <v>95</v>
       </c>
@@ -3744,14 +3767,27 @@
         <v>91</v>
       </c>
     </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>99</v>
+      </c>
+      <c r="R41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <f>24-16</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y40" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="17">
-      <filters blank="1">
-        <filter val="10110110"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>